--- a/src/main/resources/Students.xlsx
+++ b/src/main/resources/Students.xlsx
@@ -5,15 +5,15 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaud\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaud\IdeaProjects\ExcelToDB\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B3F70ED-EA82-410E-B204-49DBB7DE4826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66EEFA2-9238-4062-BE9E-69A02A37DF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Persons" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
